--- a/明日方舟数据表.xlsx
+++ b/明日方舟数据表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoenix\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seamoon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255C7FCD-DE2D-4483-9EBB-29431DAC5CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B684E645-2483-499B-913E-9AB4441EE3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="计算器" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1280,12 +1280,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1592,15 +1595,15 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1638,15 +1641,15 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
@@ -1656,19 +1659,19 @@
       </c>
       <c r="F2" s="1">
         <f>等级属性计算器!B3</f>
-        <v>691</v>
+        <v>935</v>
       </c>
       <c r="G2" s="1">
         <f>等级属性计算器!C3</f>
-        <v>300</v>
+        <v>418</v>
       </c>
       <c r="H2" s="1">
         <f>等级属性计算器!D3</f>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="I2" s="1">
         <f>等级属性计算器!E3</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(A2,干员表!A:A,干员表!D:D),职业表!B:B,职业表!E:E)</f>
@@ -1678,7 +1681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>173</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="str">
         <f>IF(计算器!A5="","",_xlfn.XLOOKUP(计算器!A5,模组表!C:C,模组表!B:B))</f>
         <v/>
@@ -1698,7 +1701,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B8:E9" ca="1">IF(COUNTIF(技能表!A:A,计算器!A2)=0,"",IF(计算器!L2="","",IF(等级与精英!N36,等级与精英!B36:E37,IF(等级与精英!N39,等级与精英!B39:E40,IF(等级与精英!N42,等级与精英!B42:C43,IF(等级与精英!N45,等级与精英!B45:C46))))))</f>
         <v>总伤</v>
@@ -1716,33 +1719,33 @@
         <v>DPH</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B9" s="1">
         <f ca="1"/>
-        <v>6000</v>
+        <v>8891</v>
       </c>
       <c r="C9" s="1">
         <f ca="1"/>
-        <v>0</v>
+        <v>355.64</v>
       </c>
       <c r="D9" s="1">
         <f ca="1"/>
-        <v>0</v>
+        <v>127.01428571428572</v>
       </c>
       <c r="E9" s="1">
         <f ca="1"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18" spans="20:20" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T18" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>300</v>
       </c>
@@ -1819,12 +1822,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1850,25 +1853,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="1">
         <f>ROUND(IF(计算器!B2=2,(INDEX(干员表!P:P,MATCH(计算器!A2,干员表!A:A,0))+(计算器!C2-1)*等级属性计算器!I4),IF(计算器!B2=1,(INDEX(干员表!L:L,MATCH(计算器!A2,干员表!A:A,0))+等级属性计算器!I3*(计算器!C2-1)),INDEX(干员表!H:H,MATCH(计算器!A2,干员表!A:A,0))+等级属性计算器!I2*(计算器!C2-1))),0)</f>
-        <v>691</v>
+        <v>935</v>
       </c>
       <c r="C2" s="1">
         <f>ROUND(IF(计算器!B2=2,(INDEX(干员表!Q:Q,MATCH(计算器!A2,干员表!A:A,0))+(计算器!C2-1)*等级属性计算器!J4),IF(计算器!B2=1,(INDEX(干员表!M:M,MATCH(计算器!A2,干员表!A:A,0))+等级属性计算器!J3*(计算器!C2-1)),INDEX(干员表!I:I,MATCH(计算器!A2,干员表!A:A,0))+等级属性计算器!J2*(计算器!C2-1))),0)</f>
-        <v>260</v>
+        <v>378</v>
       </c>
       <c r="D2" s="1">
         <f>ROUND(IF(计算器!B2=2,(INDEX(干员表!R:R,MATCH(计算器!A2,干员表!A:A,0))+(计算器!C2-1)*等级属性计算器!K4),IF(计算器!B2=1,(INDEX(干员表!N:N,MATCH(计算器!A2,干员表!A:A,0))+等级属性计算器!K3*(计算器!C2-1)),INDEX(干员表!J:J,MATCH(计算器!A2,干员表!A:A,0))+等级属性计算器!K2*(计算器!C2-1))),0)</f>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">INDEX(干员表!O:W,MATCH(计算器!A2,干员表!A:A,0),1+4*计算器!B2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>144</v>
@@ -1886,25 +1889,25 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="1">
         <f>等级属性计算器!B2+IF(MOD(ROUNDDOWN(计算器!E2/2,0)/50*INDEX(干员表!X:X,MATCH(计算器!A2,干员表!A:A,0)),1)=0.5,ROUND(ROUNDDOWN(计算器!E2/2,0)*INDEX(干员表!X:X,MATCH(计算器!A2,干员表!A:A,0))/50/2,0)*2,ROUND(ROUNDDOWN(计算器!E2/2,0)*INDEX(干员表!X:X,MATCH(计算器!A2,干员表!A:A,0))/50,0))</f>
-        <v>691</v>
+        <v>935</v>
       </c>
       <c r="C3" s="1">
         <f>等级属性计算器!C2+IF(MOD(ROUNDDOWN(计算器!E2/2,0)/50*INDEX(干员表!Y:Y,MATCH(计算器!A2,干员表!A:A,0)),1)=0.5,ROUND(ROUNDDOWN(计算器!E2/2,0)*INDEX(干员表!Y:Y,MATCH(计算器!A2,干员表!A:A,0))/50/2,0)*2,ROUND(ROUNDDOWN(计算器!E2/2,0)*INDEX(干员表!Y:Y,MATCH(计算器!A2,干员表!A:A,0))/50,0))</f>
-        <v>300</v>
+        <v>418</v>
       </c>
       <c r="D3" s="1">
         <f>等级属性计算器!D2+IF(MOD(ROUNDDOWN(计算器!E2/2,0)/50*INDEX(干员表!Z:Z,MATCH(计算器!A2,干员表!A:A,0)),1)=0.5,ROUND(ROUNDDOWN(计算器!E2/2,0)*INDEX(干员表!Z:Z,MATCH(计算器!A2,干员表!A:A,0))/50/2,0)*2,ROUND(ROUNDDOWN(计算器!E2/2,0)*INDEX(干员表!Z:Z,MATCH(计算器!A2,干员表!A:A,0))/50,0))</f>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1">
         <f>等级属性计算器!E2</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>145</v>
@@ -1922,7 +1925,7 @@
         <v>0.35185185185185186</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H4" s="1" t="s">
         <v>146</v>
       </c>
@@ -1956,12 +1959,12 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1978,8 +1981,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1995,8 +1998,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2010,8 +2013,8 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2025,8 +2028,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2040,8 +2043,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2055,8 +2058,8 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2072,8 +2075,8 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2087,8 +2090,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2102,8 +2105,8 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2117,8 +2120,8 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2132,8 +2135,8 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2147,8 +2150,8 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2162,8 +2165,8 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2177,8 +2180,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2192,8 +2195,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2207,8 +2210,8 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2222,8 +2225,8 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2237,8 +2240,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2254,8 +2257,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2269,8 +2272,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2284,8 +2287,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
@@ -2299,8 +2302,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2317,8 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2329,8 +2332,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
       <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2344,8 +2347,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2359,8 +2362,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2376,8 +2379,8 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2394,8 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
       <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2406,8 +2409,8 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
       <c r="B30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2421,8 +2424,8 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
       <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2436,8 +2439,8 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2451,8 +2454,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
       <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2466,8 +2469,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
       <c r="B34" s="1" t="s">
         <v>44</v>
       </c>
@@ -2481,8 +2484,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
       <c r="B35" s="1" t="s">
         <v>45</v>
       </c>
@@ -2496,8 +2499,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2513,8 +2516,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
       <c r="B37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2528,8 +2531,8 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="9"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2543,8 +2546,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
       <c r="B39" s="1" t="s">
         <v>53</v>
       </c>
@@ -2558,8 +2561,8 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="9"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
       <c r="B40" s="1" t="s">
         <v>54</v>
       </c>
@@ -2573,8 +2576,8 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
       <c r="B41" s="1" t="s">
         <v>55</v>
       </c>
@@ -2588,8 +2591,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
       <c r="B42" s="1" t="s">
         <v>56</v>
       </c>
@@ -2603,8 +2606,8 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
       <c r="B43" s="1" t="s">
         <v>57</v>
       </c>
@@ -2618,8 +2621,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
       <c r="B44" s="1" t="s">
         <v>58</v>
       </c>
@@ -2633,8 +2636,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2650,8 +2653,8 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
       <c r="B46" s="1" t="s">
         <v>60</v>
       </c>
@@ -2665,8 +2668,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
       <c r="B47" s="1" t="s">
         <v>61</v>
       </c>
@@ -2680,8 +2683,8 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
       <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2698,8 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
       <c r="B49" s="1" t="s">
         <v>63</v>
       </c>
@@ -2710,8 +2713,8 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="9"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
       <c r="B50" s="1" t="s">
         <v>64</v>
       </c>
@@ -2725,8 +2728,8 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2742,8 +2745,8 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
       <c r="B52" s="1" t="s">
         <v>66</v>
       </c>
@@ -2757,8 +2760,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
       <c r="B53" s="1" t="s">
         <v>67</v>
       </c>
@@ -2772,8 +2775,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="9"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
       <c r="B54" s="1" t="s">
         <v>68</v>
       </c>
@@ -2787,8 +2790,8 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
       <c r="B55" s="1" t="s">
         <v>69</v>
       </c>
@@ -2802,8 +2805,8 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
       <c r="B56" s="1" t="s">
         <v>70</v>
       </c>
@@ -2817,8 +2820,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
       <c r="B57" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +2835,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="9" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2849,8 +2852,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
       <c r="B59" s="1" t="s">
         <v>74</v>
       </c>
@@ -2864,8 +2867,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="10"/>
       <c r="B60" s="1" t="s">
         <v>75</v>
       </c>
@@ -2879,8 +2882,8 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
       <c r="B61" s="1" t="s">
         <v>76</v>
       </c>
@@ -2894,8 +2897,8 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="9"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="10"/>
       <c r="B62" s="1" t="s">
         <v>77</v>
       </c>
@@ -2909,8 +2912,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="9"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
       <c r="B63" s="1" t="s">
         <v>78</v>
       </c>
@@ -2924,8 +2927,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="9"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
       <c r="B64" s="1" t="s">
         <v>79</v>
       </c>
@@ -2939,8 +2942,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="9"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
       <c r="B65" s="1" t="s">
         <v>80</v>
       </c>
@@ -2954,8 +2957,8 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="9"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
       <c r="B66" s="1" t="s">
         <v>81</v>
       </c>
@@ -2969,8 +2972,8 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="9"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
       <c r="B67" s="1" t="s">
         <v>82</v>
       </c>
@@ -3011,12 +3014,12 @@
       <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="H1" s="1" t="s">
         <v>141</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>95</v>
       </c>
@@ -3267,7 +3270,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
@@ -3527,7 +3530,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>118</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>119</v>
       </c>
@@ -3900,7 +3903,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>122</v>
       </c>
@@ -4131,7 +4134,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>123</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>124</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>125</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>126</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>127</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>128</v>
       </c>
@@ -4593,7 +4596,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>129</v>
       </c>
@@ -4713,14 +4716,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D1" s="1" t="s">
         <v>183</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>129</v>
       </c>
@@ -4814,7 +4817,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -4824,7 +4827,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>158</v>
       </c>
@@ -4835,7 +4838,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>95</v>
       </c>
@@ -4943,7 +4946,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
@@ -4955,11 +4958,11 @@
       </c>
       <c r="D5" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
         <f>D5*10</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>279</v>
@@ -4969,7 +4972,7 @@
       </c>
       <c r="I5" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1">
         <v>150</v>
@@ -4984,7 +4987,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>124</v>
       </c>
@@ -4996,11 +4999,11 @@
       </c>
       <c r="D6" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
         <f>D6*15</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>287</v>
@@ -5012,7 +5015,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>126</v>
       </c>
@@ -5024,11 +5027,11 @@
       </c>
       <c r="D7" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
         <f>IF(D7=2,15,IF(D7=1,7,0))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>279</v>
@@ -5038,11 +5041,11 @@
       </c>
       <c r="I7" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1">
         <f>IF(I7=0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>294</v>
@@ -5051,7 +5054,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
@@ -5063,11 +5066,11 @@
       </c>
       <c r="D8" s="1">
         <f>计算器!B2+IF(计算器!C5="",0,MAX(0,计算器!C5-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <f>100-IF(触发天赋表!D8&lt;3,(10)*触发天赋表!D8,(21)+(3*(触发天赋表!D8-2)))-IF(计算器!D2&gt;4,3,0)</f>
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>194</v>
@@ -5090,15 +5093,15 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>158</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>96</v>
       </c>
@@ -5156,11 +5159,11 @@
       </c>
       <c r="D3" s="1">
         <f>IF(计算器!C2=30,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <f>IF(D3,-30,0)</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>147</v>
@@ -5169,7 +5172,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -5181,11 +5184,11 @@
       </c>
       <c r="D4" s="1">
         <f>IF(计算器!C2=30,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <f>IF(D4,12,0)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
@@ -5195,11 +5198,11 @@
       </c>
       <c r="H4" s="1">
         <f>IF(计算器!C2=30,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="8">
         <f>IF(H4,12,0)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>2</v>
@@ -5208,7 +5211,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
@@ -5220,11 +5223,11 @@
       </c>
       <c r="D5" s="1">
         <f>IF(计算器!C2=30,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <f>IF(D5,50,0)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
@@ -5233,7 +5236,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>114</v>
       </c>
@@ -5245,11 +5248,11 @@
       </c>
       <c r="D6" s="1">
         <f>IF(计算器!C2=30,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <f>IF(D6,50,0)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>260</v>
@@ -5258,7 +5261,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -5270,11 +5273,11 @@
       </c>
       <c r="D7" s="1">
         <f>IF(计算器!C2=30,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <f>IF(D7,50,0)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>262</v>
@@ -5283,7 +5286,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>116</v>
       </c>
@@ -5295,11 +5298,11 @@
       </c>
       <c r="D8" s="1">
         <f>IF(计算器!B2=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <f>IF(D8,-1,0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>264</v>
@@ -5308,7 +5311,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>117</v>
       </c>
@@ -5320,11 +5323,11 @@
       </c>
       <c r="D9" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
         <f>D9*4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
@@ -5333,7 +5336,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>118</v>
       </c>
@@ -5345,11 +5348,11 @@
       </c>
       <c r="D10" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="6">
         <f>D10*4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>1</v>
@@ -5358,7 +5361,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>119</v>
       </c>
@@ -5370,11 +5373,11 @@
       </c>
       <c r="D11" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="6">
         <f>D11*4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>1</v>
@@ -5383,7 +5386,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>120</v>
       </c>
@@ -5395,11 +5398,11 @@
       </c>
       <c r="D12" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
         <f>D12*6</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>3</v>
@@ -5408,7 +5411,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>121</v>
       </c>
@@ -5420,11 +5423,11 @@
       </c>
       <c r="D13" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
         <f>D13*5</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
@@ -5433,7 +5436,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -5445,11 +5448,11 @@
       </c>
       <c r="D14" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
         <f>D14*4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>226</v>
@@ -5459,11 +5462,11 @@
       </c>
       <c r="H14" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1">
         <f>IF(H14=0,0,600)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>284</v>
@@ -5472,7 +5475,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
@@ -5484,11 +5487,11 @@
       </c>
       <c r="D15" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
         <f>D15*4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1</v>
@@ -5497,7 +5500,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>127</v>
       </c>
@@ -5509,11 +5512,11 @@
       </c>
       <c r="D16" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <f>D16*3</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1</v>
@@ -5523,11 +5526,11 @@
       </c>
       <c r="H16" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1">
         <f>IF(H16=0,0,600)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>297</v>
@@ -5536,7 +5539,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>128</v>
       </c>
@@ -5548,11 +5551,11 @@
       </c>
       <c r="D17" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
         <f>IF(D17=2,9,IF(D17=1,5,0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>226</v>
@@ -5575,10 +5578,10 @@
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="1"/>
     <col min="6" max="6" width="9" style="4"/>
     <col min="7" max="12" width="9" style="1"/>
@@ -5586,7 +5589,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>196</v>
       </c>
@@ -5597,7 +5600,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>116</v>
       </c>
@@ -5681,7 +5684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -5725,7 +5728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
@@ -5762,7 +5765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
@@ -5809,7 +5812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>121</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>122</v>
       </c>
@@ -5924,7 +5927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>123</v>
       </c>
@@ -5961,7 +5964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>124</v>
       </c>
@@ -5998,7 +6001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -6035,7 +6038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>126</v>
       </c>
@@ -6083,7 +6086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>127</v>
       </c>
@@ -6117,7 +6120,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>128</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>129</v>
       </c>
@@ -6213,17 +6216,17 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6251,7 +6254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6262,7 +6265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6276,7 +6279,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6293,7 +6296,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6310,7 +6313,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6327,7 +6330,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>0</v>
       </c>
@@ -6338,7 +6341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -6352,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -6366,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -6380,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -6394,7 +6397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -6408,7 +6411,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -6422,7 +6425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
@@ -6433,7 +6436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <f>MATCH(计算器!A2,干员表!A:A,0)</f>
         <v>22</v>
@@ -6443,12 +6446,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str" cm="1">
         <f t="array" ref="A23">IF(ISBLANK(INDEX(干员表!AE:AE,等级与精英!B21)),"",INDEX(干员表!AE:AE,等级与精英!B21))</f>
         <v/>
@@ -6458,7 +6461,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str" cm="1">
         <f t="array" ref="A24">IF(A23="","",INDEX(模组表!C:C,MATCH(1,(模组表!A:A=计算器!A2)*(模组表!B:B=等级与精英!A23),0)))</f>
         <v/>
@@ -6468,12 +6471,12 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f>IF(计算器!B5="","",1)</f>
         <v/>
@@ -6487,12 +6490,12 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -6524,7 +6527,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -6547,7 +6550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -6561,9 +6564,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" cm="1">
-        <f t="array" ref="A33:D33">IF(等级与精英!C21&lt;3,"",IF((等级与精英!C21&gt;2)*(计算器!B2=0),等级与精英!A31:D31,IF((等级与精英!C21&gt;2)*(计算器!B2=1),等级与精英!A30:G30,等级与精英!A29:J29)))</f>
+        <f t="array" ref="A33:G33">IF(等级与精英!C21&lt;3,"",IF((等级与精英!C21&gt;2)*(计算器!B2=0),等级与精英!A31:D31,IF((等级与精英!C21&gt;2)*(计算器!B2=1),等级与精英!A30:G30,等级与精英!A29:J29)))</f>
         <v>1</v>
       </c>
       <c r="B33" s="1">
@@ -6575,8 +6578,17 @@
       <c r="D33" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E33" s="1">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1">
+        <v>6</v>
+      </c>
+      <c r="G33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G35" s="1" t="s">
         <v>214</v>
       </c>
@@ -6587,7 +6599,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>236</v>
       </c>
@@ -6617,25 +6629,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <f ca="1">技能一属性计算器!G10</f>
-        <v>6000</v>
+        <v>8891</v>
       </c>
       <c r="C37" s="1">
-        <f ca="1">计算器!B9/_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)</f>
-        <v>0</v>
+        <f ca="1">B37/_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)</f>
+        <v>355.64</v>
       </c>
       <c r="D37" s="1">
-        <f ca="1">计算器!B9/(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)+_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!D:D))</f>
-        <v>0</v>
+        <f ca="1">B37/(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)+_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!D:D))</f>
+        <v>127.01428571428572</v>
       </c>
       <c r="E37" s="1">
         <f ca="1">技能一属性计算器!G3</f>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>212</v>
       </c>
@@ -6663,25 +6675,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <f ca="1">技能一属性计算器!G10</f>
-        <v>6000</v>
+        <v>8891</v>
       </c>
       <c r="C40" s="1">
-        <f ca="1">计算器!B9/_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)</f>
-        <v>0</v>
+        <f ca="1">B40/_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)</f>
+        <v>355.64</v>
       </c>
       <c r="D40" s="1">
-        <f ca="1">计算器!B9/(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)+_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!D:D))</f>
-        <v>0</v>
+        <f ca="1">B40/(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)+_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!D:D))</f>
+        <v>127.01428571428572</v>
       </c>
       <c r="E40" s="1">
         <f ca="1">技能一属性计算器!G3</f>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>238</v>
       </c>
@@ -6702,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <f>_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!Q:Q)</f>
         <v>0</v>
@@ -6712,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>245</v>
       </c>
@@ -6733,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -6762,7 +6774,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6773,11 +6785,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3437C01-0EA0-4934-91A4-3652415E4EE2}">
   <dimension ref="A1:BU22"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BT8" sqref="BT8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
@@ -6786,7 +6798,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>135</v>
       </c>
@@ -6941,13 +6953,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <f>等级属性计算器!B3</f>
-        <v>691</v>
+        <v>935</v>
       </c>
       <c r="C2" s="1">
         <f ca="1">K2</f>
@@ -6967,7 +6979,7 @@
       </c>
       <c r="G2" s="1">
         <f ca="1">ROUND(MAX(F2*((B2+C2)*(1+D2)+E2),0),0)</f>
-        <v>691</v>
+        <v>935</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>216</v>
@@ -7050,7 +7062,7 @@
       </c>
       <c r="BK2" s="3">
         <f ca="1">SUMIF(BL3:BL50,"TRUE",BK3:BK50)</f>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="BN2" s="3">
         <f ca="1">SUMIF(BO3:BO50,"TRUE",BN3:BN50)</f>
@@ -7065,13 +7077,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <f>等级属性计算器!C3</f>
-        <v>300</v>
+        <v>418</v>
       </c>
       <c r="C3" s="1">
         <f ca="1">X2</f>
@@ -7091,7 +7103,7 @@
       </c>
       <c r="G3" s="1">
         <f ca="1">ROUND(MAX(0,(F3*(B3+C3)*(1+D3)+E3)),0)</f>
-        <v>375</v>
+        <v>523</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>205</v>
@@ -7249,13 +7261,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <f>等级属性计算器!D3</f>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1">
         <f ca="1">AK2</f>
@@ -7275,7 +7287,7 @@
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G6" ca="1" si="0">ROUND(MAX(0,(F4*(B4+C4)*(1+D4)+E4)),0)</f>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>243</v>
@@ -7433,13 +7445,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <f>等级属性计算器!E3</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <f ca="1">AX2</f>
@@ -7459,7 +7471,7 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>305</v>
@@ -7495,7 +7507,7 @@
       <c r="BR5" s="8"/>
       <c r="BU5" s="8"/>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>226</v>
       </c>
@@ -7504,7 +7516,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">BK2</f>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1">
         <f ca="1">BN2/100</f>
@@ -7520,7 +7532,7 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>306</v>
@@ -7556,7 +7568,7 @@
       <c r="BR6" s="8"/>
       <c r="BU6" s="8"/>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
       <c r="J7" s="1" t="s">
         <v>303</v>
       </c>
@@ -7567,21 +7579,21 @@
       <c r="L7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="1" t="str" cm="1">
+      <c r="N7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
       <c r="O7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" s="1" t="str" cm="1">
+      <c r="Q7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
       <c r="R7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="T7" s="1" t="str" cm="1">
+      <c r="T7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="T7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
@@ -7591,28 +7603,28 @@
       <c r="W7" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="X7" s="1" t="str" cm="1">
+      <c r="X7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="X7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
       <c r="Y7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AA7" s="1" t="str" cm="1">
+      <c r="AA7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AA7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
       <c r="AB7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AD7" s="1" t="str" cm="1">
+      <c r="AD7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AD7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
       <c r="AE7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AG7" s="1" t="str" cm="1">
+      <c r="AG7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AG7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
@@ -7622,28 +7634,28 @@
       <c r="AJ7" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AK7" s="1" t="str" cm="1">
+      <c r="AK7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AK7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
       <c r="AL7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AN7" s="1" t="str" cm="1">
+      <c r="AN7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AN7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
       <c r="AO7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AQ7" s="1" t="str" cm="1">
+      <c r="AQ7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AQ7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
       <c r="AR7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AT7" s="1" t="str" cm="1">
+      <c r="AT7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AT7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
@@ -7653,28 +7665,28 @@
       <c r="AW7" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="AX7" s="1" t="str" cm="1">
+      <c r="AX7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AX7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
       <c r="AY7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BA7" s="1" t="str" cm="1">
+      <c r="BA7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="BA7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
       <c r="BB7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BD7" s="1" t="str" cm="1">
+      <c r="BD7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="BD7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
       <c r="BE7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BG7" s="1" t="str" cm="1">
+      <c r="BG7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="BG7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
@@ -7684,28 +7696,28 @@
       <c r="BJ7" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="BK7" s="1" cm="1">
+      <c r="BK7" s="9" cm="1">
         <f t="array" aca="1" ref="BK7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BL7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BN7" s="1" t="str" cm="1">
+      <c r="BN7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="BN7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
       <c r="BO7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BQ7" s="1" t="str" cm="1">
+      <c r="BQ7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="BQ7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
       <c r="BR7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BT7" s="1" t="str" cm="1">
+      <c r="BT7" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="BT7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
         <v/>
       </c>
@@ -7713,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
       <c r="J8" s="1" t="s">
         <v>304</v>
       </c>
@@ -7724,21 +7736,21 @@
       <c r="L8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="1" t="str" cm="1">
+      <c r="N8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
       <c r="O8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" s="1" t="str" cm="1">
+      <c r="Q8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
       <c r="R8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="T8" s="1" t="str" cm="1">
+      <c r="T8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="T8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
@@ -7748,28 +7760,28 @@
       <c r="W8" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="X8" s="1" t="str" cm="1">
+      <c r="X8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="X8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
       <c r="Y8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AA8" s="1" t="str" cm="1">
+      <c r="AA8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AA8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
       <c r="AB8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AD8" s="1" t="str" cm="1">
+      <c r="AD8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AD8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
       <c r="AE8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AG8" s="1" t="str" cm="1">
+      <c r="AG8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AG8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
@@ -7779,28 +7791,28 @@
       <c r="AJ8" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="AK8" s="1" t="str" cm="1">
+      <c r="AK8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AK8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
       <c r="AL8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AN8" s="1" t="str" cm="1">
+      <c r="AN8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AN8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
       <c r="AO8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AQ8" s="1" t="str" cm="1">
+      <c r="AQ8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AQ8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
       <c r="AR8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AT8" s="1" t="str" cm="1">
+      <c r="AT8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AT8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
@@ -7810,28 +7822,28 @@
       <c r="AW8" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="AX8" s="1" t="str" cm="1">
+      <c r="AX8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="AX8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
       <c r="AY8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BA8" s="1" t="str" cm="1">
+      <c r="BA8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="BA8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
       <c r="BB8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BD8" s="1" t="str" cm="1">
+      <c r="BD8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="BD8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
       <c r="BE8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BG8" s="1" t="str" cm="1">
+      <c r="BG8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="BG8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
@@ -7841,28 +7853,28 @@
       <c r="BJ8" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="BK8" s="1" t="str" cm="1">
+      <c r="BK8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="BK8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
       <c r="BL8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BN8" s="1" t="str" cm="1">
+      <c r="BN8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="BN8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
       <c r="BO8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BQ8" s="1" t="str" cm="1">
+      <c r="BQ8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="BQ8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
       <c r="BR8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BT8" s="1" t="str" cm="1">
+      <c r="BT8" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="BT8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
         <v/>
       </c>
@@ -7870,7 +7882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>209</v>
       </c>
@@ -7890,7 +7902,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>225</v>
       </c>
@@ -7900,27 +7912,27 @@
       </c>
       <c r="C10" s="1">
         <f ca="1">G6</f>
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D10" s="1">
         <f ca="1">B10/((IF(C10&lt;10,10,IF(C10&gt;600,600,C10))/100))</f>
-        <v>1.52</v>
+        <v>1.4179104477611939</v>
       </c>
       <c r="F10" s="1">
         <f ca="1">IFERROR(INT(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)/D10),"")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1">
         <f ca="1">IFERROR(G3*F10,"")</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
+        <v>8891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>234</v>
       </c>
@@ -7929,10 +7941,10 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.2">
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K22" s="7"/>
     </row>
   </sheetData>

--- a/明日方舟数据表.xlsx
+++ b/明日方舟数据表.xlsx
@@ -5,27 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seamoon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B684E645-2483-499B-913E-9AB4441EE3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027DB7FE-1CF1-47A7-9059-A73BEDCA85D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="603" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="计算器" sheetId="1" r:id="rId1"/>
-    <sheet name="干员表" sheetId="4" r:id="rId2"/>
-    <sheet name="模组表" sheetId="12" r:id="rId3"/>
-    <sheet name="触发天赋表" sheetId="10" r:id="rId4"/>
-    <sheet name="加成天赋表" sheetId="11" r:id="rId5"/>
-    <sheet name="技能表" sheetId="13" r:id="rId6"/>
-    <sheet name="等级与精英" sheetId="6" r:id="rId7"/>
-    <sheet name="属性计算器" sheetId="14" r:id="rId8"/>
+    <sheet name="敌人表" sheetId="16" r:id="rId2"/>
+    <sheet name="干员表" sheetId="4" r:id="rId3"/>
+    <sheet name="模组表" sheetId="12" r:id="rId4"/>
+    <sheet name="触发天赋表" sheetId="10" r:id="rId5"/>
+    <sheet name="加成天赋表" sheetId="11" r:id="rId6"/>
+    <sheet name="技能表" sheetId="13" r:id="rId7"/>
+    <sheet name="等级与精英" sheetId="6" r:id="rId8"/>
     <sheet name="技能一属性计算器" sheetId="8" r:id="rId9"/>
     <sheet name="等级属性计算器" sheetId="9" r:id="rId10"/>
     <sheet name="职业表" sheetId="5" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="敌人">敌人表!$A$3:$A$100</definedName>
     <definedName name="干员">干员表!$A$3:$A$999</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="335">
   <si>
     <t>干员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1013,10 +1014,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>固定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>快速重新部署</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1197,13 +1194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梓兰</t>
-  </si>
-  <si>
-    <t>相当于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加成天赋一加成一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1237,6 +1227,108 @@
   </si>
   <si>
     <t>强力击·α型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡林者</t>
+  </si>
+  <si>
+    <t>最终攻击力倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比无视防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值无视防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原石虫</t>
+  </si>
+  <si>
+    <t>原石虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地位级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1280,12 +1372,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1592,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1643,13 +1738,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
@@ -1659,23 +1754,23 @@
       </c>
       <c r="F2" s="1">
         <f>等级属性计算器!B3</f>
-        <v>935</v>
+        <v>780</v>
       </c>
       <c r="G2" s="1">
         <f>等级属性计算器!C3</f>
-        <v>418</v>
+        <v>299</v>
       </c>
       <c r="H2" s="1">
         <f>等级属性计算器!D3</f>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="I2" s="1">
         <f>等级属性计算器!E3</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(A2,干员表!A:A,干员表!D:D),职业表!B:B,职业表!E:E)</f>
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1">
         <v>7</v>
@@ -1701,65 +1796,86 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B8:E9" ca="1">IF(COUNTIF(技能表!A:A,计算器!A2)=0,"",IF(计算器!L2="","",IF(等级与精英!N36,等级与精英!B36:E37,IF(等级与精英!N39,等级与精英!B39:E40,IF(等级与精英!N42,等级与精英!B42:C43,IF(等级与精英!N45,等级与精英!B45:C46))))))</f>
-        <v>总伤</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f ca="1"/>
-        <v>DPS</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f ca="1"/>
-        <v>周期DPS</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f ca="1"/>
-        <v>DPH</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="7" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <f>_xlfn.XLOOKUP(A8,敌人表!A:A,敌人表!F:F)</f>
+        <v>550</v>
+      </c>
+      <c r="D8" s="10">
+        <f>_xlfn.XLOOKUP(A8,敌人表!A:A,敌人表!G:G)</f>
+        <v>130</v>
+      </c>
+      <c r="E8" s="10">
+        <f>_xlfn.XLOOKUP(A8,敌人表!A:A,敌人表!H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <f>_xlfn.XLOOKUP(A8,敌人表!A:A,敌人表!I:I)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="str" cm="1">
+        <f t="array" ref="B12">IF(COUNTIF(技能表!A:A,计算器!A2)=0,"",IF(计算器!L2="","",IF(等级与精英!N36,等级与精英!B36:E37,IF(等级与精英!N39,等级与精英!B39:E40,IF(等级与精英!N42,等级与精英!B42:C43,IF(等级与精英!N45,等级与精英!B45:C46))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="1">
-        <f ca="1"/>
-        <v>8891</v>
-      </c>
-      <c r="C9" s="1">
-        <f ca="1"/>
-        <v>355.64</v>
-      </c>
-      <c r="D9" s="1">
-        <f ca="1"/>
-        <v>127.01428571428572</v>
-      </c>
-      <c r="E9" s="1">
-        <f ca="1"/>
-        <v>523</v>
-      </c>
-    </row>
-    <row r="18" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T18" s="1" t="s">
+    </row>
+    <row r="22" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T22" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>300</v>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{F61945BF-2B19-4C4E-A153-1C0EF1F53AD1}">
       <formula1>干员</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{9D13C60E-E629-4941-9FDA-0C7DBF85EDCE}">
       <formula1>0</formula1>
       <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{5EADC7D3-19E6-45CD-9FA9-E5920EDAE0A4}">
+      <formula1>敌人</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1859,34 +1975,34 @@
       </c>
       <c r="B2" s="1">
         <f>ROUND(IF(计算器!B2=2,(INDEX(干员表!P:P,MATCH(计算器!A2,干员表!A:A,0))+(计算器!C2-1)*等级属性计算器!I4),IF(计算器!B2=1,(INDEX(干员表!L:L,MATCH(计算器!A2,干员表!A:A,0))+等级属性计算器!I3*(计算器!C2-1)),INDEX(干员表!H:H,MATCH(计算器!A2,干员表!A:A,0))+等级属性计算器!I2*(计算器!C2-1))),0)</f>
-        <v>935</v>
+        <v>780</v>
       </c>
       <c r="C2" s="1">
         <f>ROUND(IF(计算器!B2=2,(INDEX(干员表!Q:Q,MATCH(计算器!A2,干员表!A:A,0))+(计算器!C2-1)*等级属性计算器!J4),IF(计算器!B2=1,(INDEX(干员表!M:M,MATCH(计算器!A2,干员表!A:A,0))+等级属性计算器!J3*(计算器!C2-1)),INDEX(干员表!I:I,MATCH(计算器!A2,干员表!A:A,0))+等级属性计算器!J2*(计算器!C2-1))),0)</f>
-        <v>378</v>
+        <v>269</v>
       </c>
       <c r="D2" s="1">
         <f>ROUND(IF(计算器!B2=2,(INDEX(干员表!R:R,MATCH(计算器!A2,干员表!A:A,0))+(计算器!C2-1)*等级属性计算器!K4),IF(计算器!B2=1,(INDEX(干员表!N:N,MATCH(计算器!A2,干员表!A:A,0))+等级属性计算器!K3*(计算器!C2-1)),INDEX(干员表!J:J,MATCH(计算器!A2,干员表!A:A,0))+等级属性计算器!K2*(计算器!C2-1))),0)</f>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">INDEX(干员表!O:W,MATCH(计算器!A2,干员表!A:A,0),1+4*计算器!B2)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>144</v>
       </c>
       <c r="I2" s="1" cm="1">
         <f t="array" ref="I2">(INDEX(干员表!L:L,MATCH(计算器!A2,干员表!A:A,0))-INDEX(干员表!H:H,MATCH(计算器!A2,干员表!A:A,0)))/(INDEX(等级与精英!B12:B17,INDEX(干员表!B:B,MATCH(计算器!A2,干员表!A:A,0)))-1)</f>
-        <v>4.7435897435897436</v>
+        <v>8.068965517241379</v>
       </c>
       <c r="J2" s="1" cm="1">
         <f t="array" ref="J2">(INDEX(干员表!M:M,MATCH(计算器!A2,干员表!A:A,0))-INDEX(干员表!I:I,MATCH(计算器!A2,干员表!A:A,0)))/(INDEX(等级与精英!B12:B17,INDEX(干员表!B:B,MATCH(计算器!A2,干员表!A:A,0)))-1)</f>
-        <v>2.3333333333333335</v>
+        <v>3.7241379310344827</v>
       </c>
       <c r="K2" s="1" cm="1">
         <f t="array" ref="K2">(INDEX(干员表!N:N,MATCH(计算器!A2,干员表!A:A,0))-INDEX(干员表!J:J,MATCH(计算器!A2,干员表!A:A,0)))/(INDEX(等级与精英!B12:B17,INDEX(干员表!B:B,MATCH(计算器!A2,干员表!A:A,0)))-1)</f>
-        <v>0.51282051282051277</v>
+        <v>0.68965517241379315</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1895,34 +2011,34 @@
       </c>
       <c r="B3" s="1">
         <f>等级属性计算器!B2+IF(MOD(ROUNDDOWN(计算器!E2/2,0)/50*INDEX(干员表!X:X,MATCH(计算器!A2,干员表!A:A,0)),1)=0.5,ROUND(ROUNDDOWN(计算器!E2/2,0)*INDEX(干员表!X:X,MATCH(计算器!A2,干员表!A:A,0))/50/2,0)*2,ROUND(ROUNDDOWN(计算器!E2/2,0)*INDEX(干员表!X:X,MATCH(计算器!A2,干员表!A:A,0))/50,0))</f>
-        <v>935</v>
+        <v>780</v>
       </c>
       <c r="C3" s="1">
         <f>等级属性计算器!C2+IF(MOD(ROUNDDOWN(计算器!E2/2,0)/50*INDEX(干员表!Y:Y,MATCH(计算器!A2,干员表!A:A,0)),1)=0.5,ROUND(ROUNDDOWN(计算器!E2/2,0)*INDEX(干员表!Y:Y,MATCH(计算器!A2,干员表!A:A,0))/50/2,0)*2,ROUND(ROUNDDOWN(计算器!E2/2,0)*INDEX(干员表!Y:Y,MATCH(计算器!A2,干员表!A:A,0))/50,0))</f>
-        <v>418</v>
+        <v>299</v>
       </c>
       <c r="D3" s="1">
         <f>等级属性计算器!D2+IF(MOD(ROUNDDOWN(计算器!E2/2,0)/50*INDEX(干员表!Z:Z,MATCH(计算器!A2,干员表!A:A,0)),1)=0.5,ROUND(ROUNDDOWN(计算器!E2/2,0)*INDEX(干员表!Z:Z,MATCH(计算器!A2,干员表!A:A,0))/50/2,0)*2,ROUND(ROUNDDOWN(计算器!E2/2,0)*INDEX(干员表!Z:Z,MATCH(计算器!A2,干员表!A:A,0))/50,0))</f>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1">
         <f>等级属性计算器!E2</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>145</v>
       </c>
       <c r="I3" s="1" cm="1">
         <f t="array" ref="I3">(INDEX(干员表!P:P,MATCH(计算器!A2,干员表!A:A,0))-INDEX(干员表!L:L,MATCH(计算器!A2,干员表!A:A,0)))/(INDEX(等级与精英!C12:C17,INDEX(干员表!B:B,MATCH(计算器!A2,干员表!A:A,0)))-1)</f>
-        <v>3.6481481481481484</v>
+        <v>780</v>
       </c>
       <c r="J3" s="1" cm="1">
         <f t="array" ref="J3">(INDEX(干员表!Q:Q,MATCH(计算器!A2,干员表!A:A,0))-INDEX(干员表!M:M,MATCH(计算器!A2,干员表!A:A,0)))/(INDEX(等级与精英!C12:C17,INDEX(干员表!B:B,MATCH(计算器!A2,干员表!A:A,0)))-1)</f>
-        <v>1.7592592592592593</v>
+        <v>269</v>
       </c>
       <c r="K3" s="1" cm="1">
         <f t="array" ref="K3">(INDEX(干员表!R:R,MATCH(计算器!A2,干员表!A:A,0))-INDEX(干员表!N:N,MATCH(计算器!A2,干员表!A:A,0)))/(INDEX(等级与精英!C12:C17,INDEX(干员表!B:B,MATCH(计算器!A2,干员表!A:A,0)))-1)</f>
-        <v>0.35185185185185186</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1931,15 +2047,15 @@
       </c>
       <c r="I4" s="1" cm="1">
         <f t="array" ref="I4">(INDEX(干员表!T:T,MATCH(计算器!A2,干员表!A:A,0))-INDEX(干员表!P:P,MATCH(计算器!A2,干员表!A:A,0)))/(INDEX(等级与精英!D12:D17,INDEX(干员表!B:B,MATCH(计算器!A2,干员表!A:A,0)))-1)</f>
-        <v>935</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" cm="1">
         <f t="array" ref="J4">(INDEX(干员表!U:U,MATCH(计算器!A2,干员表!A:A,0))-INDEX(干员表!Q:Q,MATCH(计算器!A2,干员表!A:A,0)))/(INDEX(等级与精英!D12:D17,INDEX(干员表!B:B,MATCH(计算器!A2,干员表!A:A,0)))-1)</f>
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1" cm="1">
         <f t="array" ref="K4">(INDEX(干员表!V:V,MATCH(计算器!A2,干员表!A:A,0))-INDEX(干员表!R:R,MATCH(计算器!A2,干员表!A:A,0)))/(INDEX(等级与精英!D12:D17,INDEX(干员表!B:B,MATCH(计算器!A2,干员表!A:A,0)))-1)</f>
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +2098,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1999,7 +2115,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2014,7 +2130,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2029,7 +2145,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2044,7 +2160,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2059,7 +2175,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2076,7 +2192,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2091,7 +2207,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2106,7 +2222,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2121,7 +2237,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2136,7 +2252,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2151,7 +2267,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2166,7 +2282,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2181,7 +2297,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,7 +2312,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2211,7 +2327,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2226,7 +2342,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2241,7 +2357,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2258,7 +2374,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2273,7 +2389,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2288,7 +2404,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
@@ -2303,7 +2419,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,7 +2434,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2333,7 +2449,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2348,7 +2464,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2363,7 +2479,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2380,7 +2496,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2395,7 +2511,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2410,7 +2526,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2425,7 +2541,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2440,7 +2556,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2455,7 +2571,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2470,7 +2586,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="1" t="s">
         <v>44</v>
       </c>
@@ -2485,7 +2601,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="1" t="s">
         <v>45</v>
       </c>
@@ -2500,7 +2616,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2517,7 +2633,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2532,7 +2648,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2547,7 +2663,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="1" t="s">
         <v>53</v>
       </c>
@@ -2562,7 +2678,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="1" t="s">
         <v>54</v>
       </c>
@@ -2577,7 +2693,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="1" t="s">
         <v>55</v>
       </c>
@@ -2592,7 +2708,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="1" t="s">
         <v>56</v>
       </c>
@@ -2607,7 +2723,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="1" t="s">
         <v>57</v>
       </c>
@@ -2622,7 +2738,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="1" t="s">
         <v>58</v>
       </c>
@@ -2637,7 +2753,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2654,7 +2770,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="1" t="s">
         <v>60</v>
       </c>
@@ -2669,7 +2785,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="1" t="s">
         <v>61</v>
       </c>
@@ -2684,7 +2800,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,7 +2815,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="1" t="s">
         <v>63</v>
       </c>
@@ -2714,7 +2830,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="1" t="s">
         <v>64</v>
       </c>
@@ -2729,7 +2845,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2746,7 +2862,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="1" t="s">
         <v>66</v>
       </c>
@@ -2761,7 +2877,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="1" t="s">
         <v>67</v>
       </c>
@@ -2776,7 +2892,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="1" t="s">
         <v>68</v>
       </c>
@@ -2791,7 +2907,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="1" t="s">
         <v>69</v>
       </c>
@@ -2806,7 +2922,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="1" t="s">
         <v>70</v>
       </c>
@@ -2821,7 +2937,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="1" t="s">
         <v>71</v>
       </c>
@@ -2836,7 +2952,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2853,7 +2969,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="1" t="s">
         <v>74</v>
       </c>
@@ -2868,7 +2984,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="1" t="s">
         <v>75</v>
       </c>
@@ -2883,7 +2999,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="1" t="s">
         <v>76</v>
       </c>
@@ -2898,7 +3014,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="1" t="s">
         <v>77</v>
       </c>
@@ -2913,7 +3029,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="1" t="s">
         <v>78</v>
       </c>
@@ -2928,7 +3044,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="1" t="s">
         <v>79</v>
       </c>
@@ -2943,7 +3059,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="1" t="s">
         <v>80</v>
       </c>
@@ -2958,7 +3074,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="1" t="s">
         <v>81</v>
       </c>
@@ -2973,7 +3089,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="1" t="s">
         <v>82</v>
       </c>
@@ -3004,6 +3120,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500674FB-027A-49D4-9B6C-318BBE18F164}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3">
+        <v>550</v>
+      </c>
+      <c r="G3">
+        <v>130</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4">
+        <v>800</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D134129-FDF6-4B45-ACCF-720B29EDF94A}">
   <dimension ref="A1:AF23"/>
   <sheetViews>
@@ -4708,7 +4914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D10D5-DCA2-40B8-B79B-9FBB38853F8E}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -4809,12 +5015,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC31F19-EE17-482A-BAA6-F6E0F86463BC}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4861,7 +5067,7 @@
         <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>161</v>
@@ -4876,7 +5082,7 @@
         <v>170</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -4901,7 +5107,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -4929,7 +5135,7 @@
         <v>87</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I4" s="1">
         <f>计算器!D2</f>
@@ -4951,31 +5157,31 @@
         <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D5" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <f>D5*10</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I5" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>1</v>
@@ -4984,7 +5190,7 @@
         <v>253</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -4992,27 +5198,27 @@
         <v>124</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="D6" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <f>D6*15</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -5020,38 +5226,38 @@
         <v>126</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="D7" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <f>IF(D7=2,15,IF(D7=1,7,0))</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I7" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
         <f>IF(I7=0,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -5066,11 +5272,11 @@
       </c>
       <c r="D8" s="1">
         <f>计算器!B2+IF(计算器!C5="",0,MAX(0,计算器!C5-1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <f>100-IF(触发天赋表!D8&lt;3,(10)*触发天赋表!D8,(21)+(3*(触发天赋表!D8-2)))-IF(计算器!D2&gt;4,3,0)</f>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>194</v>
@@ -5085,12 +5291,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FA2517-289E-482F-A7F8-FE9A345515A5}">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5106,10 +5312,10 @@
         <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -5152,18 +5358,18 @@
         <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D3" s="1">
         <f>IF(计算器!C2=30,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <f>IF(D3,-30,0)</f>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>147</v>
@@ -5177,18 +5383,18 @@
         <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D4" s="1">
         <f>IF(计算器!C2=30,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <f>IF(D4,12,0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
@@ -5198,11 +5404,11 @@
       </c>
       <c r="H4" s="1">
         <f>IF(计算器!C2=30,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="8">
         <f>IF(H4,12,0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>2</v>
@@ -5216,24 +5422,24 @@
         <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D5" s="1">
         <f>IF(计算器!C2=30,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <f>IF(D5,50,0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -5241,21 +5447,21 @@
         <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="1">
         <f>IF(计算器!C2=30,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <f>IF(D6,50,0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>86</v>
@@ -5266,21 +5472,21 @@
         <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D7" s="1">
         <f>IF(计算器!C2=30,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <f>IF(D7,50,0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>86</v>
@@ -5291,21 +5497,21 @@
         <v>116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D8" s="1">
         <f>IF(计算器!B2=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <f>IF(D8,-1,0)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>86</v>
@@ -5316,18 +5522,18 @@
         <v>117</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D9" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <f>D9*4</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
@@ -5341,18 +5547,18 @@
         <v>118</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="D10" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6">
         <f>D10*4</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>1</v>
@@ -5366,18 +5572,18 @@
         <v>119</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="D11" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6">
         <f>D11*4</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>1</v>
@@ -5391,18 +5597,18 @@
         <v>120</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D12" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <f>D12*6</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>3</v>
@@ -5416,18 +5622,18 @@
         <v>121</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D13" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <f>D13*5</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
@@ -5441,18 +5647,18 @@
         <v>123</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="D14" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <f>D14*4</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>226</v>
@@ -5462,14 +5668,14 @@
       </c>
       <c r="H14" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <f>IF(H14=0,0,600)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>86</v>
@@ -5480,18 +5686,18 @@
         <v>125</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D15" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <f>D15*4</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1</v>
@@ -5505,18 +5711,18 @@
         <v>127</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="D16" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <f>D16*3</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1</v>
@@ -5526,14 +5732,14 @@
       </c>
       <c r="H16" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <f>IF(H16=0,0,600)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>86</v>
@@ -5544,18 +5750,18 @@
         <v>128</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="D17" s="1">
         <f>IF(计算器!B2=1,IF(计算器!C2=55,2,1),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <f>IF(D17=2,9,IF(D17=1,5,0))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>226</v>
@@ -5570,12 +5776,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3320773-9F40-4CAA-A7F6-94D0F8327591}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5840,7 +6046,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="K7" s="1" cm="1">
         <f t="array" ref="K7">INDEX({20,23,25,30,32,35,40},计算器!L2)</f>
@@ -5911,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="K9" s="1" cm="1">
         <f t="array" ref="K9">INDEX({100,105,110,120,125,130,140},计算器!L2)</f>
@@ -5921,10 +6127,10 @@
         <v>254</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
       <c r="N9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -5969,7 +6175,7 @@
         <v>124</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -6006,7 +6212,7 @@
         <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -6043,7 +6249,7 @@
         <v>126</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -6076,7 +6282,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>86</v>
@@ -6091,7 +6297,7 @@
         <v>127</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -6113,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="K14" s="1" cm="1">
         <f t="array" ref="K14">INDEX({150,155,160,170,175,180,190},计算器!L2)</f>
@@ -6211,12 +6417,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA33B4BF-15B9-4AC9-B8F3-2709FB42F19C}">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6439,11 +6645,11 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <f>MATCH(计算器!A2,干员表!A:A,0)</f>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" cm="1">
         <f t="array" ref="C21">INDEX(干员表!B:B,等级与精英!B21)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -6565,27 +6771,9 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" cm="1">
-        <f t="array" ref="A33:G33">IF(等级与精英!C21&lt;3,"",IF((等级与精英!C21&gt;2)*(计算器!B2=0),等级与精英!A31:D31,IF((等级与精英!C21&gt;2)*(计算器!B2=1),等级与精英!A30:G30,等级与精英!A29:J29)))</f>
-        <v>1</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4</v>
-      </c>
-      <c r="E33" s="1">
-        <v>5</v>
-      </c>
-      <c r="F33" s="1">
-        <v>6</v>
-      </c>
-      <c r="G33" s="1">
-        <v>7</v>
+      <c r="A33" s="1" t="str" cm="1">
+        <f t="array" ref="A33">IF(等级与精英!C21&lt;3,"",IF((等级与精英!C21&gt;2)*(计算器!B2=0),等级与精英!A31:D31,IF((等级与精英!C21&gt;2)*(计算器!B2=1),等级与精英!A30:G30,等级与精英!A29:J29)))</f>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -6624,27 +6812,27 @@
       <c r="I36" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="N36" s="1" t="b">
+      <c r="N36" s="1" t="e">
         <f>AND(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!G:G)=等级与精英!G36,_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!P:P)=等级与精英!H36,_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)&lt;&gt;0)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="1">
+      <c r="B37" s="1" t="str">
         <f ca="1">技能一属性计算器!G10</f>
-        <v>8891</v>
-      </c>
-      <c r="C37" s="1">
+        <v/>
+      </c>
+      <c r="C37" s="1" t="e">
         <f ca="1">B37/_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)</f>
-        <v>355.64</v>
-      </c>
-      <c r="D37" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D37" s="1" t="e">
         <f ca="1">B37/(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)+_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!D:D))</f>
-        <v>127.01428571428572</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E37" s="1">
         <f ca="1">技能一属性计算器!G3</f>
-        <v>523</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -6670,27 +6858,27 @@
       <c r="I39" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="N39" s="3" t="b">
+      <c r="N39" s="3" t="e">
         <f>AND(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!G:G)=等级与精英!G39,_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!P:P)=等级与精英!H39,_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)&lt;&gt;0)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="1">
+      <c r="B40" s="1" t="str">
         <f ca="1">技能一属性计算器!G10</f>
-        <v>8891</v>
-      </c>
-      <c r="C40" s="1">
+        <v/>
+      </c>
+      <c r="C40" s="1" t="e">
         <f ca="1">B40/_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)</f>
-        <v>355.64</v>
-      </c>
-      <c r="D40" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" s="1" t="e">
         <f ca="1">B40/(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)+_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!D:D))</f>
-        <v>127.01428571428572</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E40" s="1">
         <f ca="1">技能一属性计算器!G3</f>
-        <v>523</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -6709,19 +6897,19 @@
       <c r="I42" s="1">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="b">
+      <c r="N42" s="3" t="e">
         <f>AND(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!G:G)=等级与精英!G42,_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!P:P)=等级与精英!H42,_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)=I42)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="1">
+      <c r="B43" s="1" t="e">
         <f>_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!Q:Q)</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="C43" s="1" t="e">
         <f>等级与精英!B43/(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!D:D)+_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -6740,9 +6928,9 @@
       <c r="I45" s="1">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="b">
+      <c r="N45" s="3" t="e">
         <f>AND(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!G:G)=等级与精英!G45,_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!P:P)=等级与精英!H45,_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)=I45)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -6766,39 +6954,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D3A0F7-B9FE-4A79-B121-D28C974FB780}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3437C01-0EA0-4934-91A4-3652415E4EE2}">
-  <dimension ref="A1:BU22"/>
+  <dimension ref="A1:CR22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="1" max="8" width="9" style="1"/>
+    <col min="9" max="11" width="9" style="10"/>
     <col min="12" max="13" width="9" style="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="15" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="76" width="9" style="1"/>
+    <col min="77" max="77" width="9" style="10"/>
+    <col min="78" max="80" width="9" style="1"/>
+    <col min="81" max="81" width="9" style="10"/>
+    <col min="82" max="83" width="9" style="1"/>
+    <col min="84" max="84" width="9" style="10"/>
+    <col min="85" max="85" width="9" style="1"/>
+    <col min="86" max="91" width="9" style="10"/>
+    <col min="92" max="93" width="9" style="1"/>
+    <col min="94" max="94" width="9" style="10"/>
+    <col min="95" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>135</v>
       </c>
@@ -6817,697 +7002,786 @@
       <c r="G1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="AW1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="BJ1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BM1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="BO1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BU1" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="BW1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ1" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="CA1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="CB1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="CD1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE1" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CG1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="CI1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CJ1" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="CL1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="CN1" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="CO1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="CQ1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="CR1" s="10"/>
+    </row>
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <f>等级属性计算器!B3</f>
-        <v>935</v>
+        <v>780</v>
       </c>
       <c r="C2" s="1">
-        <f ca="1">K2</f>
+        <f ca="1">N2</f>
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <f ca="1">N2/100</f>
+        <f ca="1">Q2/100</f>
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <f ca="1">Q2</f>
+        <f ca="1">T2</f>
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <f ca="1">IF(T2=1,1,T2/100)</f>
+        <f ca="1">IF(W2=1,1,W2/100)</f>
         <v>1</v>
       </c>
       <c r="G2" s="1">
         <f ca="1">ROUND(MAX(F2*((B2+C2)*(1+D2)+E2),0),0)</f>
-        <v>935</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K2" s="1">
-        <f ca="1">SUMIF(L3:L50,"TRUE",K3:K50)</f>
-        <v>0</v>
-      </c>
       <c r="N2" s="1">
-        <f ca="1">SUMIF(O3:O50,"TRUE",N3:N50)</f>
+        <f ca="1">SUMIF(O3:O50,TRUE,N3:N50)</f>
         <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <f ca="1">SUMIF(R3:R50,"TRUE",Q3:Q50)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" cm="1">
-        <f t="array" aca="1" ref="T2" ca="1">PRODUCT(IF(U3:U50="TRUE",IF(T3:T50="",1,IF(T3:T50&lt;=0,T3:T50+100,T3:T50)),1))</f>
-        <v>1</v>
-      </c>
-      <c r="W2" s="1" t="s">
+        <f ca="1">SUMIF(R3:R50,TRUE,Q3:Q50)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <f ca="1">SUMIF(U3:U50,TRUE,T3:T50)</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="1" cm="1">
+        <f t="array" aca="1" ref="W2" ca="1">PRODUCT(IF(X3:X50=TRUE,IF(W3:W50="",1,IF(W3:W50&lt;=0,W3:W50+100,W3:W50)),1))</f>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="X2" s="1">
-        <f ca="1">SUMIF(Y3:Y50,"TRUE",X3:X50)</f>
-        <v>0</v>
-      </c>
       <c r="AA2" s="1">
-        <f ca="1">SUMIF(AB3:AB50,"TRUE",AA3:AA50)</f>
-        <v>25</v>
+        <f ca="1">SUMIF(AB3:AB50,TRUE,AA3:AA50)</f>
+        <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <f ca="1">SUMIF(AE3:AE50,"TRUE",AD3:AD50)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1" cm="1">
-        <f t="array" aca="1" ref="AG2" ca="1">PRODUCT(IF(AH3:AH50="TRUE",IF(AG3:AG50="",1,IF(AG3:AG50&lt;=0,AG3:AG50+100,AG3:AG50)),1))</f>
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
+        <f ca="1">SUMIF(AE3:AE50,TRUE,AD3:AD50)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <f ca="1">SUMIF(AH3:AH50,TRUE,AG3:AG50)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1" cm="1">
+        <f t="array" aca="1" ref="AJ2" ca="1">PRODUCT(IF(AK3:AK50=TRUE,IF(AJ3:AJ50="",1,IF(AJ3:AJ50&lt;=0,AJ3:AJ50+100,AJ3:AJ50)),1))</f>
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AK2" s="1">
-        <f ca="1">SUMIF(AL3:AL50,"TRUE",AK3:AK50)</f>
-        <v>0</v>
-      </c>
       <c r="AN2" s="1">
-        <f ca="1">SUMIF(AO3:AO50,"TRUE",AN3:AN50)</f>
+        <f ca="1">SUMIF(AO3:AO50,TRUE,AN3:AN50)</f>
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <f ca="1">SUMIF(AR3:AR50,"TRUE",AQ3:AQ50)</f>
-        <v>0</v>
-      </c>
-      <c r="AT2" s="1" cm="1">
-        <f t="array" aca="1" ref="AT2" ca="1">PRODUCT(IF(AU3:AU50="TRUE",IF(AT3:AT50="",1,IF(AT3:AT50&lt;=0,AT3:AT50+100,AT3:AT50)),1))</f>
-        <v>1</v>
-      </c>
-      <c r="AW2" s="1" t="s">
+        <f ca="1">SUMIF(AR3:AR50,TRUE,AQ3:AQ50)</f>
+        <v>0</v>
+      </c>
+      <c r="AT2" s="1">
+        <f ca="1">SUMIF(AU3:AU50,TRUE,AT3:AT50)</f>
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1" cm="1">
+        <f t="array" aca="1" ref="AW2" ca="1">PRODUCT(IF(AX3:AX50=TRUE,IF(AW3:AW50="",1,IF(AW3:AW50&lt;=0,AW3:AW50+100,AW3:AW50)),1))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AX2" s="1">
-        <f ca="1">SUMIF(AY3:AY50,"TRUE",AX3:AX50)</f>
-        <v>0</v>
-      </c>
       <c r="BA2" s="1">
-        <f ca="1">SUMIF(BB3:BB50,"TRUE",BA3:BA50)</f>
+        <f ca="1">SUMIF(BB3:BB50,TRUE,BA3:BA50)</f>
         <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <f ca="1">SUMIF(BE3:BE50,"TRUE",BD3:BD50)</f>
-        <v>0</v>
-      </c>
-      <c r="BG2" s="1" cm="1">
-        <f t="array" aca="1" ref="BG2" ca="1">PRODUCT(IF(BH3:BH50="TRUE",IF(BG3:BG50="",1,IF(BG3:BG50&lt;=0,BG3:BG50+100,BG3:BG50)),1))</f>
-        <v>1</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
+        <f ca="1">SUMIF(BE3:BE50,TRUE,BD3:BD50)</f>
+        <v>0</v>
+      </c>
+      <c r="BG2" s="1">
+        <f ca="1">SUMIF(BH3:BH50,TRUE,BG3:BG50)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="1" cm="1">
+        <f t="array" aca="1" ref="BJ2" ca="1">PRODUCT(IF(BK3:BK50=TRUE,IF(BJ3:BJ50="",1,IF(BJ3:BJ50&lt;=0,BJ3:BJ50+100,BJ3:BJ50)),1))</f>
+        <v>1</v>
+      </c>
+      <c r="BM2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BK2" s="3">
-        <f ca="1">SUMIF(BL3:BL50,"TRUE",BK3:BK50)</f>
-        <v>34</v>
-      </c>
       <c r="BN2" s="3">
-        <f ca="1">SUMIF(BO3:BO50,"TRUE",BN3:BN50)</f>
+        <f ca="1">SUMIF(BO3:BO50,TRUE,BN3:BN50)</f>
         <v>0</v>
       </c>
       <c r="BQ2" s="3">
-        <f ca="1">SUMIF(BR3:BR50,"TRUE",BQ3:BQ50)</f>
-        <v>0</v>
-      </c>
-      <c r="BT2" s="3" cm="1">
-        <f t="array" aca="1" ref="BT2" ca="1">PRODUCT(IF(BU3:BU50="TRUE",IF(BT3:BT50="",1,IF(BT3:BT50&lt;=0,BT3:BT50+100,BT3:BT50)),1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
+        <f ca="1">SUMIF(BR3:BR50,TRUE,BQ3:BQ50)</f>
+        <v>0</v>
+      </c>
+      <c r="BT2" s="3">
+        <f ca="1">SUMIF(BU3:BU50,TRUE,BT3:BT50)</f>
+        <v>0</v>
+      </c>
+      <c r="BW2" s="3" cm="1">
+        <f t="array" aca="1" ref="BW2" ca="1">PRODUCT(IF(BX3:BX50=TRUE,IF(BW3:BW50="",1,IF(BW3:BW50&lt;=0,BW3:BW50+100,BW3:BW50)),1))</f>
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA2" s="10" cm="1">
+        <f t="array" aca="1" ref="CA2" ca="1">PRODUCT(IF(CB3:CB50=TRUE,IF(CA3:CA50="",1,IF(CA3:CA50&lt;=0,CA3:CA50+1,CA3:CA50/100+1)),1))</f>
+        <v>1.5</v>
+      </c>
+      <c r="CE2" s="10" cm="1">
+        <f t="array" ref="CE2">PRODUCT(IF(CG3:CG50=TRUE,IF(CE3:CE50="",1,IF(CE3:CE50&lt;=0,CE3:CE50+1,CE3:CE50/100+1)),1))</f>
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="10" cm="1">
+        <f t="array" ref="CJ2">PRODUCT(IF(CL3:CL50=TRUE,IF(CJ3:CJ50="",1,IF(CJ3:CJ50&lt;=0,CJ3:CJ50+1,CJ3:CJ50/100+1)),1))</f>
+        <v>1</v>
+      </c>
+      <c r="CO2" s="10" cm="1">
+        <f t="array" ref="CO2">PRODUCT(IF(CQ3:CQ50=TRUE,IF(CO3:CO50="",1,IF(CO3:CO50&lt;=0,CO3:CO50+1,CO3:CO50/100+1)),1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <f>等级属性计算器!C3</f>
-        <v>418</v>
+        <v>299</v>
       </c>
       <c r="C3" s="1">
-        <f ca="1">X2</f>
+        <f ca="1">AA2</f>
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <f ca="1">AA2/100</f>
-        <v>0.25</v>
+        <f ca="1">AD2/100</f>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <f ca="1">AD2</f>
+        <f ca="1">AG2</f>
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f ca="1">IF(AG2=1,1,AG2/100)</f>
+        <f ca="1">IF(AJ2=1,1,AJ2/100)</f>
         <v>1</v>
       </c>
       <c r="G3" s="1">
         <f ca="1">ROUND(MAX(0,(F3*(B3+C3)*(1+D3)+E3)),0)</f>
-        <v>523</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=K1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=J1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
-        <v/>
-      </c>
-      <c r="L3" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="N3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=N1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=J1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=N1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=M1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
         <v/>
       </c>
       <c r="O3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=Q1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=J1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=Q1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=M1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
         <v/>
       </c>
       <c r="R3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=T1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=J1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
-        <v/>
-      </c>
-      <c r="U3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1" t="s">
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=T1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=M1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <v/>
+      </c>
+      <c r="U3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1" t="str">
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=W1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=M1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <v/>
+      </c>
+      <c r="X3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="X3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=K1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=W1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
-        <v/>
-      </c>
-      <c r="Y3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AA1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=W1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
-        <v>25</v>
+      <c r="AA3" s="1" t="str">
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=N1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=Z1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <v/>
       </c>
       <c r="AB3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AD3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AD1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=W1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AD1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=Z1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
         <v/>
       </c>
       <c r="AE3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AG3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AG1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=W1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AG1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=Z1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
         <v/>
       </c>
       <c r="AH3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AJ3" s="1" t="str">
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AJ1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=Z1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <v/>
+      </c>
+      <c r="AK3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AK3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AK1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
-        <v/>
-      </c>
-      <c r="AL3" s="8" t="b">
-        <v>1</v>
-      </c>
       <c r="AN3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AN1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AN1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
         <v/>
       </c>
       <c r="AO3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AQ3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AQ1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AQ1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
         <v/>
       </c>
       <c r="AR3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AT3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AT1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AT1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
         <v/>
       </c>
       <c r="AU3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AW3" s="1" t="str">
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AW1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <v/>
+      </c>
+      <c r="AX3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AX3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=AX1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AW1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
-        <v/>
-      </c>
-      <c r="AY3" s="8" t="b">
-        <v>1</v>
-      </c>
       <c r="BA3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=BA1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AW1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=BA1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AZ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
         <v/>
       </c>
       <c r="BB3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BD3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=BD1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AW1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=BD1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AZ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
         <v/>
       </c>
       <c r="BE3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BG3" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=BG1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AW1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=BG1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AZ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
         <v/>
       </c>
       <c r="BH3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BJ3" s="1" t="str">
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=BJ1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=AZ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <v/>
+      </c>
+      <c r="BK3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="BK3" s="1" t="str" cm="1">
-        <f t="array" ref="BK3">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=BJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
-        <v/>
-      </c>
-      <c r="BL3" s="8" t="b">
-        <v>1</v>
-      </c>
       <c r="BN3" s="1" t="str" cm="1">
-        <f t="array" ref="BN3">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=BJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <f t="array" ref="BN3">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=BM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
         <v/>
       </c>
       <c r="BO3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BQ3" s="1" t="str" cm="1">
-        <f t="array" ref="BQ3">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=BJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <f t="array" ref="BQ3">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=BM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
         <v/>
       </c>
       <c r="BR3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BT3" s="1" t="str" cm="1">
-        <f t="array" ref="BT3">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=BJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <f t="array" ref="BT3">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=BM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
         <v/>
       </c>
       <c r="BU3" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="BW3" s="1" t="str" cm="1">
+        <f t="array" ref="BW3">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!J:J)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!I:I)=BM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!K:K),""),"")</f>
+        <v/>
+      </c>
+      <c r="BX3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ3" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="CB3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <f>等级属性计算器!D3</f>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1">
-        <f ca="1">AK2</f>
+        <f ca="1">AN2</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f ca="1">AN2/100</f>
+        <f ca="1">AQ2/100</f>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f ca="1">AQ2</f>
+        <f ca="1">AT2</f>
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f ca="1">IF(AT2=1,1,AT2/100)</f>
+        <f ca="1">IF(AW2=1,1,AW2/100)</f>
         <v>1</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G6" ca="1" si="0">ROUND(MAX(0,(F4*(B4+C4)*(1+D4)+E4)),0)</f>
-        <v>83</v>
-      </c>
-      <c r="J4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="K4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=K1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=J1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
-        <v/>
-      </c>
-      <c r="L4" s="8" t="b">
-        <v>1</v>
-      </c>
       <c r="N4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=N1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=J1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=N1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=M1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="O4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=Q1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=J1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=Q1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=M1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="R4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="T4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=T1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=J1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=T1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=M1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="U4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="1" t="str">
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=W1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=M1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <v/>
+      </c>
+      <c r="X4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="X4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=X1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=W1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
-        <v/>
-      </c>
-      <c r="Y4" s="8" t="b">
-        <v>1</v>
-      </c>
       <c r="AA4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AA1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=W1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AA1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=Z1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="AB4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AD4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AD1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=W1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AD1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=Z1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="AE4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AG4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AG1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=W1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AG1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=Z1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="AH4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AJ4" s="1" t="str">
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AJ1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=Z1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <v/>
+      </c>
+      <c r="AK4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AK4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AK1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
-        <v/>
-      </c>
-      <c r="AL4" s="8" t="b">
-        <v>1</v>
-      </c>
       <c r="AN4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AN1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AN1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="AO4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AQ4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AQ1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AQ1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="AR4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AT4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AT1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AT1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="AU4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AW4" s="1" t="str">
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AW1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <v/>
+      </c>
+      <c r="AX4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AX4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=AX1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AW1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
-        <v/>
-      </c>
-      <c r="AY4" s="8" t="b">
-        <v>1</v>
-      </c>
       <c r="BA4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=BA1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AW1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=BA1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AZ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="BB4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BD4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=BD1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AW1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=BD1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AZ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="BE4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BG4" s="1" t="str">
-        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=BG1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AW1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=BG1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AZ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="BH4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BJ4" s="1" t="s">
+      <c r="BJ4" s="1" t="str">
+        <f>IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=BJ1)*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=AZ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <v/>
+      </c>
+      <c r="BK4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BK4" s="1" cm="1">
-        <f t="array" ref="BK4">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=BJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
-        <v>25</v>
-      </c>
-      <c r="BL4" s="8" t="b">
-        <v>1</v>
-      </c>
       <c r="BN4" s="1" t="str" cm="1">
-        <f t="array" ref="BN4">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=BJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f t="array" ref="BN4">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=BM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="BO4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BQ4" s="1" t="str" cm="1">
-        <f t="array" ref="BQ4">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=BJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f t="array" ref="BQ4">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=BM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="BR4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BT4" s="1" t="str" cm="1">
-        <f t="array" ref="BT4">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=BJ1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <f t="array" ref="BT4">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=BM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
         <v/>
       </c>
       <c r="BU4" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="BW4" s="1" t="str" cm="1">
+        <f t="array" ref="BW4">IFERROR(IF((_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!M:M)=INDEX(1:1,1,COLUMN()))*(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!L:L)=BM1),_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!N:N),""),"")</f>
+        <v/>
+      </c>
+      <c r="BX4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="CB4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CQ4" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <f>等级属性计算器!E3</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <f ca="1">AX2</f>
+        <f ca="1">BA2</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f ca="1">BA2/100</f>
+        <f ca="1">BD2/100</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f ca="1">BD2</f>
+        <f ca="1">BG2</f>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f ca="1">IF(BG2=1,1,BG2/100)</f>
+        <f ca="1">IF(BJ2=1,1,BJ2/100)</f>
         <v>1</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="W5" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y5" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Z5" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="AB5" s="8"/>
       <c r="AE5" s="8"/>
       <c r="AH5" s="8"/>
-      <c r="AJ5" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AL5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AM5" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="AO5" s="8"/>
       <c r="AR5" s="8"/>
       <c r="AU5" s="8"/>
-      <c r="AW5" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AY5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AZ5" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="BB5" s="8"/>
       <c r="BE5" s="8"/>
       <c r="BH5" s="8"/>
-      <c r="BJ5" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="BL5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BM5" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="BO5" s="8"/>
       <c r="BR5" s="8"/>
       <c r="BU5" s="8"/>
-    </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="BX5" s="8"/>
+      <c r="BZ5" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>226</v>
       </c>
@@ -7515,374 +7789,408 @@
         <v>100</v>
       </c>
       <c r="C6" s="1">
-        <f ca="1">BK2</f>
-        <v>34</v>
+        <f ca="1">BN2</f>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f ca="1">BN2/100</f>
+        <f ca="1">BQ2/100</f>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f ca="1">BQ2</f>
+        <f ca="1">BT2</f>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f ca="1">IF(BT2=1,1,BT2/100)</f>
+        <f ca="1">IF(BW2=1,1,BW2/100)</f>
         <v>1</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="W6" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y6" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Z6" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="AB6" s="8"/>
       <c r="AE6" s="8"/>
       <c r="AH6" s="8"/>
-      <c r="AJ6" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="AL6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AM6" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="AO6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AU6" s="8"/>
-      <c r="AW6" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="AY6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AZ6" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="BB6" s="8"/>
       <c r="BE6" s="8"/>
       <c r="BH6" s="8"/>
-      <c r="BJ6" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="BL6" s="8"/>
+      <c r="BK6" s="8"/>
+      <c r="BM6" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="BO6" s="8"/>
       <c r="BR6" s="8"/>
       <c r="BU6" s="8"/>
-    </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="J7" s="1" t="s">
+      <c r="BX6" s="8"/>
+      <c r="BZ6" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="K7" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="K7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
-        <v/>
-      </c>
-      <c r="L7" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="N7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+    </row>
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="M7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N7" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="O7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="Q7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="Q7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+        <f t="array" aca="1" ref="Q7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="R7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="T7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="T7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+        <f t="array" aca="1" ref="T7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="U7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="W7" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="X7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="X7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
-        <v/>
-      </c>
-      <c r="Y7" s="8" t="b">
-        <v>1</v>
+      <c r="W7" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="W7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
+        <v/>
+      </c>
+      <c r="X7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="AA7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AA7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+        <f t="array" aca="1" ref="AA7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="AB7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AD7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AD7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+        <f t="array" aca="1" ref="AD7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="AE7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AG7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AG7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+        <f t="array" aca="1" ref="AG7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="AH7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AJ7" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AK7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
-        <v/>
-      </c>
-      <c r="AL7" s="8" t="b">
-        <v>1</v>
+      <c r="AJ7" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="AJ7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
+        <v/>
+      </c>
+      <c r="AK7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="AN7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AN7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+        <f t="array" aca="1" ref="AN7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="AO7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AQ7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AQ7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+        <f t="array" aca="1" ref="AQ7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="AR7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AT7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AT7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+        <f t="array" aca="1" ref="AT7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="AU7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AW7" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="AX7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AX7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
-        <v/>
-      </c>
-      <c r="AY7" s="8" t="b">
-        <v>1</v>
+      <c r="AW7" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="AW7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
+        <v/>
+      </c>
+      <c r="AX7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="BA7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="BA7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+        <f t="array" aca="1" ref="BA7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="BB7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BD7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="BD7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+        <f t="array" aca="1" ref="BD7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="BE7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BG7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="BG7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+        <f t="array" aca="1" ref="BG7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="BH7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BJ7" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="BK7" s="9" cm="1">
-        <f t="array" aca="1" ref="BK7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
-        <v>9</v>
-      </c>
-      <c r="BL7" s="8" t="b">
-        <v>1</v>
+      <c r="BJ7" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="BJ7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
+        <v/>
+      </c>
+      <c r="BK7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="BN7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="BN7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+        <f t="array" aca="1" ref="BN7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="BO7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BQ7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="BQ7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+        <f t="array" aca="1" ref="BQ7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="BR7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BT7" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="BT7" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),"")</f>
+        <f t="array" aca="1" ref="BT7" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!F:F)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
         <v/>
       </c>
       <c r="BU7" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="J8" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="K8" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="K8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
-        <v/>
-      </c>
-      <c r="L8" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="N8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+      <c r="BW7" s="9"/>
+      <c r="BX7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="CA7" s="1" cm="1">
+        <f t="array" aca="1" ref="CA7" ca="1">IFERROR(IF(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!G:G)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"攻击力倍率","伤害倍率","治疗倍率"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"攻击力倍率","伤害倍率","治疗倍率"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!E:E),""),"")</f>
+        <v>50</v>
+      </c>
+      <c r="CB7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CG7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CQ7" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="M8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="N8" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="O8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="Q8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="Q8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+        <f t="array" aca="1" ref="Q8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="R8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="T8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="T8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+        <f t="array" aca="1" ref="T8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="U8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="W8" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="X8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="X8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
-        <v/>
-      </c>
-      <c r="Y8" s="8" t="b">
-        <v>1</v>
+      <c r="W8" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="W8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
+        <v/>
+      </c>
+      <c r="X8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="AA8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AA8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+        <f t="array" aca="1" ref="AA8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="AB8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AD8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AD8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+        <f t="array" aca="1" ref="AD8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="AE8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AG8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AG8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+        <f t="array" aca="1" ref="AG8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="AH8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AJ8" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="AK8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AK8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
-        <v/>
-      </c>
-      <c r="AL8" s="8" t="b">
-        <v>1</v>
+      <c r="AJ8" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="AJ8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
+        <v/>
+      </c>
+      <c r="AK8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="AN8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AN8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+        <f t="array" aca="1" ref="AN8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="AO8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AQ8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AQ8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+        <f t="array" aca="1" ref="AQ8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="AR8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AT8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AT8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+        <f t="array" aca="1" ref="AT8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="AU8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AW8" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="AX8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
-        <v/>
-      </c>
-      <c r="AY8" s="8" t="b">
-        <v>1</v>
+      <c r="AW8" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="AW8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
+        <v/>
+      </c>
+      <c r="AX8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="BA8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="BA8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+        <f t="array" aca="1" ref="BA8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="BB8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BD8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="BD8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+        <f t="array" aca="1" ref="BD8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="BE8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BG8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="BG8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+        <f t="array" aca="1" ref="BG8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="BH8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BJ8" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="BK8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="BK8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
-        <v/>
-      </c>
-      <c r="BL8" s="8" t="b">
-        <v>1</v>
+      <c r="BJ8" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="BJ8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
+        <v/>
+      </c>
+      <c r="BK8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="BN8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="BN8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+        <f t="array" aca="1" ref="BN8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="BO8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BQ8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="BQ8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+        <f t="array" aca="1" ref="BQ8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="BR8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="BT8" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="BT8" ca="1">IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),"")</f>
+        <f t="array" aca="1" ref="BT8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
         <v/>
       </c>
       <c r="BU8" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="BW8" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="BW8" ca="1">IFERROR(IF(AND(_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!J:J)=INDIRECT(ADDRESS(1,INDEX(MAX(IFERROR(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0),"")),MATCH(TRUE,ISNUMBER(MATCH({"生命","攻击","防御","法抗","攻速"},A1:INDIRECT(ADDRESS(1,COLUMN())),0)),0)))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!K:K)=INDIRECT(ADDRESS(1,COLUMN()))),_xlfn.XLOOKUP(计算器!A2,加成天赋表!A:A,加成天赋表!I:I),""),"")</f>
+        <v/>
+      </c>
+      <c r="BX8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="CB8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>209</v>
       </c>
@@ -7902,37 +8210,37 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B10" s="1">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(计算器!A2,干员表!A:A,干员表!D:D),职业表!B:B,职业表!E:E)</f>
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <f ca="1">G6</f>
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1">
         <f ca="1">B10/((IF(C10&lt;10,10,IF(C10&gt;600,600,C10))/100))</f>
-        <v>1.4179104477611939</v>
-      </c>
-      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="str">
         <f ca="1">IFERROR(INT(_xlfn.XLOOKUP(计算器!A2,技能表!A:A,技能表!H:H)/D10),"")</f>
-        <v>17</v>
-      </c>
-      <c r="G10" s="1">
+        <v/>
+      </c>
+      <c r="G10" s="1" t="str">
         <f ca="1">IFERROR(G3*F10,"")</f>
-        <v>8891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>234</v>
       </c>
@@ -7941,11 +8249,80 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K22" s="7"/>
+    <row r="15" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="1" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">CA2*INDIRECT(ADDRESS(2,82+MATCH(B16,CD1:CI1,0)))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <f>计算器!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f ca="1">MAX(0.05*G3*C16,G3*C16-((1-D16)*MAX(0,E16-F16)))</f>
+        <v>448.5</v>
+      </c>
+      <c r="CC16" s="1"/>
+    </row>
+    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CC17" s="1"/>
+    </row>
+    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CC18" s="1"/>
+    </row>
+    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="N22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
